--- a/new_data.xlsx
+++ b/new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOWRYEC17\IdeaProjects\COMP350_Flamingoes_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753F740-8AAA-477B-BDE3-141DF1DC3066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879176C-8336-44FE-B1CB-BC880813C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6250" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6265" uniqueCount="1159">
   <si>
     <t>CourseCode</t>
   </si>
@@ -3488,6 +3488,15 @@
   </si>
   <si>
     <t>0.368055555555556</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>303</t>
   </si>
 </sst>
 </file>
@@ -3867,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
-      <selection activeCell="D697" sqref="D697"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11489,6 +11498,9 @@
       <c r="G218" t="s">
         <v>526</v>
       </c>
+      <c r="H218" t="s">
+        <v>1154</v>
+      </c>
       <c r="I218" t="s">
         <v>18</v>
       </c>
@@ -11521,6 +11533,9 @@
       <c r="G219" t="s">
         <v>526</v>
       </c>
+      <c r="H219" t="s">
+        <v>1154</v>
+      </c>
       <c r="I219" t="s">
         <v>122</v>
       </c>
@@ -11553,6 +11568,9 @@
       <c r="G220" t="s">
         <v>526</v>
       </c>
+      <c r="H220" t="s">
+        <v>1154</v>
+      </c>
       <c r="I220" t="s">
         <v>62</v>
       </c>
@@ -12247,6 +12265,12 @@
       <c r="F240" t="s">
         <v>38</v>
       </c>
+      <c r="G240" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1158</v>
+      </c>
       <c r="I240" t="s">
         <v>122</v>
       </c>
@@ -16444,6 +16468,9 @@
       <c r="G360" t="s">
         <v>665</v>
       </c>
+      <c r="H360" t="s">
+        <v>601</v>
+      </c>
       <c r="I360" t="s">
         <v>76</v>
       </c>
@@ -16788,6 +16815,12 @@
       <c r="F370" t="s">
         <v>32</v>
       </c>
+      <c r="G370" t="s">
+        <v>15</v>
+      </c>
+      <c r="H370" t="s">
+        <v>107</v>
+      </c>
       <c r="I370" t="s">
         <v>210</v>
       </c>
@@ -16821,7 +16854,7 @@
         <v>15</v>
       </c>
       <c r="H371" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="I371" t="s">
         <v>210</v>
@@ -16852,6 +16885,12 @@
       <c r="F372" t="s">
         <v>14</v>
       </c>
+      <c r="G372" t="s">
+        <v>15</v>
+      </c>
+      <c r="H372" t="s">
+        <v>361</v>
+      </c>
       <c r="I372" t="s">
         <v>210</v>
       </c>
@@ -23464,6 +23503,9 @@
       <c r="G561" s="2" t="s">
         <v>1154</v>
       </c>
+      <c r="H561" t="s">
+        <v>1157</v>
+      </c>
       <c r="I561" t="s">
         <v>122</v>
       </c>
@@ -25068,6 +25110,12 @@
       <c r="F607" s="2" t="s">
         <v>1154</v>
       </c>
+      <c r="G607" t="s">
+        <v>15</v>
+      </c>
+      <c r="H607" t="s">
+        <v>1156</v>
+      </c>
       <c r="I607" t="s">
         <v>120</v>
       </c>
@@ -25096,6 +25144,12 @@
       </c>
       <c r="F608" t="s">
         <v>38</v>
+      </c>
+      <c r="G608" t="s">
+        <v>15</v>
+      </c>
+      <c r="H608" t="s">
+        <v>597</v>
       </c>
       <c r="I608" t="s">
         <v>96</v>
